--- a/tests/params/main_table.xlsx
+++ b/tests/params/main_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Sam/Documents/profound/profound-model/tests/params/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68DE046-CD38-D446-AD11-E60339487B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5595722-A981-DB4B-A0BC-ABFFDD19BCE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="InitialPop" sheetId="12" r:id="rId1"/>
@@ -202,9 +202,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>preb</t>
-  </si>
-  <si>
     <t>il.lr</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
   </si>
   <si>
     <t>illicit opioid use (injecting heroin) among illicit opioid users</t>
-  </si>
-  <si>
-    <t>illicit opioid use (heroin), equal 1-preb</t>
   </si>
   <si>
     <t>type</t>
@@ -394,12 +388,6 @@
     <t>monthly prob</t>
   </si>
   <si>
-    <t>p.preb2il.lr</t>
-  </si>
-  <si>
-    <t>p.preb2inact</t>
-  </si>
-  <si>
     <t>p.il.lr2il.hr</t>
   </si>
   <si>
@@ -440,9 +428,6 @@
   </si>
   <si>
     <t>multi.NODU.fx</t>
-  </si>
-  <si>
-    <t>c.preb</t>
   </si>
   <si>
     <t>c.il.lr</t>
@@ -512,9 +497,6 @@
   </si>
   <si>
     <t>Stimulant (cocaine, methamphetamine) prevalence estimated from NSDUH data</t>
-  </si>
-  <si>
-    <t>od.preb.sub</t>
   </si>
   <si>
     <t>od.il.lr.sub</t>
@@ -800,6 +782,24 @@
   </si>
   <si>
     <t>f_other_65</t>
+  </si>
+  <si>
+    <t>illicit opioid use (heroin), equal 1-rx</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
+    <t>od.rx.sub</t>
+  </si>
+  <si>
+    <t>p.rx2il.lr</t>
+  </si>
+  <si>
+    <t>p.rx2inact</t>
+  </si>
+  <si>
+    <t>c.rx</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADE474C-D15B-46D6-BDBE-860BFA9FCA0F}">
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1202,7 +1202,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
@@ -1231,68 +1231,68 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>1000</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>0.68</v>
@@ -1304,7 +1304,7 @@
         <v>6.7199999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="7">
         <f>C4</f>
@@ -1315,17 +1315,17 @@
         <v>7.7551020408163258E-3</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2">
         <v>0.32</v>
@@ -1337,7 +1337,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" ref="G5:G6" si="0">C5</f>
@@ -1348,15 +1348,15 @@
         <v>2.5510204081632651E-3</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2">
         <v>0.32</v>
@@ -1368,7 +1368,7 @@
         <v>1.9E-2</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="7">
         <f t="shared" si="0"/>
@@ -1379,7 +1379,7 @@
         <v>1.5306122448979593E-3</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1402,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1428,7 +1428,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>244</v>
       </c>
       <c r="B2">
         <v>4.1800000000000002E-4</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="B3">
         <v>2.0199999999999999E-2</v>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B4">
         <v>8.2400000000000008E-3</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B5">
         <v>5.9500000000000004E-3</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B6">
         <v>1.4800000000000001E-2</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7">
         <v>2.5400000000000002E-3</v>
@@ -1476,7 +1476,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B8">
         <v>4.5199999999999997E-2</v>
@@ -1503,10 +1503,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -1530,15 +1530,15 @@
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2">
         <v>0.68500000000000005</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="14">
         <v>0.64500000000000002</v>
@@ -1564,10 +1564,10 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" t="s">
-        <v>63</v>
       </c>
       <c r="C4" s="14">
         <v>0.64500000000000002</v>
@@ -1582,10 +1582,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="14">
         <f>2651/6446</f>
@@ -1600,18 +1600,18 @@
         <v>0.64066852367688021</v>
       </c>
       <c r="I5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" s="14">
         <v>1.302</v>
@@ -1623,18 +1623,18 @@
         <v>1.377</v>
       </c>
       <c r="I6" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="14">
         <v>0.95</v>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="14">
         <v>7.5600000000000001E-2</v>
@@ -1663,7 +1663,7 @@
         <v>0.11579589999999999</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G8">
         <v>19</v>
@@ -1673,10 +1673,10 @@
         <v>232</v>
       </c>
       <c r="I8" s="22" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1704,18 +1704,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B2" s="23">
         <f>1-C2</f>
@@ -1745,13 +1745,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1778,7 +1778,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B4" s="13">
         <v>0.16700000000000001</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B5" s="13">
         <v>0.29899999999999999</v>
@@ -1888,7 +1888,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B14" s="13">
         <v>0.32100000000000001</v>
@@ -1932,7 +1932,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B18" s="13">
         <v>0.51100000000000001</v>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B32" s="13">
         <v>0.22600000000000001</v>
@@ -2141,7 +2141,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B37" s="13">
         <v>0.33300000000000002</v>
@@ -2152,7 +2152,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B38" s="13">
         <v>0.13900000000000001</v>
@@ -2163,7 +2163,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B39" s="13">
         <v>0.19800000000000001</v>
@@ -2203,7 +2203,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" s="14">
         <v>0.1111111</v>
@@ -2243,7 +2243,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B3" s="14">
         <v>3.7000000000000033E-2</v>
@@ -2260,7 +2260,7 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B4">
         <v>0.8</v>
@@ -2405,7 +2405,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -2431,18 +2431,18 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B2">
         <v>15.5</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B3" s="5">
         <v>0.3</v>
@@ -2456,7 +2456,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B4" s="5">
         <v>0.7</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B5">
         <v>0.9</v>
@@ -2493,10 +2493,10 @@
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C1" t="s">
         <v>34</v>
@@ -2621,7 +2621,7 @@
         <v>2015</v>
       </c>
       <c r="B2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2">
         <f>ROUND(C4/3090*932,0)</f>
@@ -2785,7 +2785,7 @@
         <v>2015</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -3035,7 +3035,7 @@
         <v>2016</v>
       </c>
       <c r="B5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3160,7 +3160,7 @@
         <v>2017</v>
       </c>
       <c r="B6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -3285,7 +3285,7 @@
         <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -3410,7 +3410,7 @@
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C8">
         <v>44</v>
@@ -3535,7 +3535,7 @@
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -3660,7 +3660,7 @@
         <v>2019</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C10">
         <v>55</v>
@@ -3785,7 +3785,7 @@
         <v>2019</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C11">
         <v>60</v>
@@ -3922,7 +3922,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B5" s="20">
         <v>0</v>
@@ -8879,7 +8879,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -8905,236 +8905,236 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="B2">
         <v>1019</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>1511</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B4">
         <v>1511</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>631</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5">
         <v>2000</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>61.5</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B9">
         <v>500</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B10" s="5">
         <v>1034</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9163,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>34</v>
@@ -9178,7 +9178,7 @@
         <v>7</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="H1" s="8" t="s">
         <v>37</v>
@@ -9288,13 +9288,13 @@
     </row>
     <row r="2" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="11">
         <v>919</v>
@@ -9455,13 +9455,13 @@
     </row>
     <row r="3" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="11">
         <v>462</v>
@@ -9622,13 +9622,13 @@
     </row>
     <row r="4" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="11">
         <v>301</v>
@@ -9789,13 +9789,13 @@
     </row>
     <row r="5" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="11">
         <v>1630</v>
@@ -9956,13 +9956,13 @@
     </row>
     <row r="6" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="11">
         <v>1800</v>
@@ -10123,13 +10123,13 @@
     </row>
     <row r="7" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
         <v>998</v>
@@ -10290,13 +10290,13 @@
     </row>
     <row r="8" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11">
         <v>6</v>
@@ -10418,13 +10418,13 @@
     </row>
     <row r="9" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="11">
         <v>6</v>
@@ -10546,13 +10546,13 @@
     </row>
     <row r="10" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10674,13 +10674,13 @@
     </row>
     <row r="11" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="11">
         <v>10</v>
@@ -10802,13 +10802,13 @@
     </row>
     <row r="12" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="11">
         <v>6</v>
@@ -10930,13 +10930,13 @@
     </row>
     <row r="13" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D13" s="11">
         <v>3</v>
@@ -11058,13 +11058,13 @@
     </row>
     <row r="14" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="11">
         <v>28</v>
@@ -11186,13 +11186,13 @@
     </row>
     <row r="15" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="11">
         <v>17</v>
@@ -11314,13 +11314,13 @@
     </row>
     <row r="16" spans="1:81" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="11">
         <v>11</v>
@@ -11442,13 +11442,13 @@
     </row>
     <row r="17" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="11">
         <v>33</v>
@@ -11570,13 +11570,13 @@
     </row>
     <row r="18" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="11">
         <v>19</v>
@@ -11698,13 +11698,13 @@
     </row>
     <row r="19" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D19" s="11">
         <v>6</v>
@@ -11826,13 +11826,13 @@
     </row>
     <row r="20" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="11">
         <v>60</v>
@@ -11954,13 +11954,13 @@
     </row>
     <row r="21" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="11">
         <v>13</v>
@@ -12082,13 +12082,13 @@
     </row>
     <row r="22" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="11">
         <v>16</v>
@@ -12210,13 +12210,13 @@
     </row>
     <row r="23" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="11">
         <v>79</v>
@@ -12338,13 +12338,13 @@
     </row>
     <row r="24" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="11">
         <v>47</v>
@@ -12466,13 +12466,13 @@
     </row>
     <row r="25" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="11">
         <v>18</v>
@@ -12594,13 +12594,13 @@
     </row>
     <row r="26" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="11">
         <v>803</v>
@@ -12722,13 +12722,13 @@
     </row>
     <row r="27" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="11">
         <v>367</v>
@@ -12850,13 +12850,13 @@
     </row>
     <row r="28" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="11">
         <v>390</v>
@@ -12978,13 +12978,13 @@
     </row>
     <row r="29" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="11">
         <v>1883</v>
@@ -13106,13 +13106,13 @@
     </row>
     <row r="30" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="11">
         <v>1943</v>
@@ -13234,13 +13234,13 @@
     </row>
     <row r="31" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D31" s="11">
         <v>1325</v>
@@ -13362,13 +13362,13 @@
     </row>
     <row r="32" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="11">
         <v>5</v>
@@ -13490,13 +13490,13 @@
     </row>
     <row r="33" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="11">
         <v>5</v>
@@ -13618,13 +13618,13 @@
     </row>
     <row r="34" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="11">
         <v>3</v>
@@ -13746,13 +13746,13 @@
     </row>
     <row r="35" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="11">
         <v>12</v>
@@ -13874,13 +13874,13 @@
     </row>
     <row r="36" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="11">
         <v>7</v>
@@ -14002,13 +14002,13 @@
     </row>
     <row r="37" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -14130,13 +14130,13 @@
     </row>
     <row r="38" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="11">
         <v>24</v>
@@ -14258,13 +14258,13 @@
     </row>
     <row r="39" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="11">
         <v>13</v>
@@ -14386,13 +14386,13 @@
     </row>
     <row r="40" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="11">
         <v>14</v>
@@ -14514,13 +14514,13 @@
     </row>
     <row r="41" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="11">
         <v>38</v>
@@ -14642,13 +14642,13 @@
     </row>
     <row r="42" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="11">
         <v>20</v>
@@ -14770,13 +14770,13 @@
     </row>
     <row r="43" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D43" s="11">
         <v>9</v>
@@ -14898,13 +14898,13 @@
     </row>
     <row r="44" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="11">
         <v>52</v>
@@ -15026,13 +15026,13 @@
     </row>
     <row r="45" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="11">
         <v>11</v>
@@ -15154,13 +15154,13 @@
     </row>
     <row r="46" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="11">
         <v>21</v>
@@ -15282,13 +15282,13 @@
     </row>
     <row r="47" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="11">
         <v>92</v>
@@ -15410,13 +15410,13 @@
     </row>
     <row r="48" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="11">
         <v>50</v>
@@ -15538,13 +15538,13 @@
     </row>
     <row r="49" spans="1:42" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D49" s="11">
         <v>24</v>
@@ -15688,36 +15688,36 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" t="s">
         <v>102</v>
-      </c>
-      <c r="F1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F2">
         <v>5.7</v>
       </c>
       <c r="I2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -15742,7 +15742,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B4" s="13">
         <v>0.69750000000000001</v>
@@ -15755,7 +15755,7 @@
         <v>0.66779999999999995</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I4" s="13">
         <v>0.69750000000000001</v>
@@ -15770,7 +15770,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B5" s="13">
         <f>1-B4</f>
@@ -15785,7 +15785,7 @@
         <v>0.33220000000000005</v>
       </c>
       <c r="H5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I5" s="13">
         <f>1-I4</f>
@@ -15802,7 +15802,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B6" s="13">
         <v>0.879</v>
@@ -15814,7 +15814,7 @@
         <v>0.87019999999999997</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I6" s="13">
         <v>0.879</v>
@@ -15828,7 +15828,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="13">
         <f>1-B6</f>
@@ -15843,7 +15843,7 @@
         <v>0.12980000000000003</v>
       </c>
       <c r="H7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I7" s="13">
         <f>1-I6</f>
@@ -15860,7 +15860,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B8" s="13">
         <v>0.94099999999999995</v>
@@ -15872,7 +15872,7 @@
         <v>0.93600000000000005</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I8" s="13">
         <v>0.94099999999999995</v>
@@ -15886,7 +15886,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="13">
         <f>1-B8</f>
@@ -15901,7 +15901,7 @@
         <v>6.3999999999999946E-2</v>
       </c>
       <c r="H9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I9" s="13">
         <f>1-I8</f>
@@ -15918,7 +15918,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="13">
         <v>0.72699999999999998</v>
@@ -15930,7 +15930,7 @@
         <v>0.73799999999999999</v>
       </c>
       <c r="H10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I10" s="13">
         <v>0.72699999999999998</v>
@@ -15944,7 +15944,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B11" s="13">
         <f>1-B10</f>
@@ -15959,7 +15959,7 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="H11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I11" s="13">
         <f>1-I10</f>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B13" s="17">
         <f>B3*B4*B8</f>
@@ -15991,7 +15991,7 @@
         <v>370.66105439999995</v>
       </c>
       <c r="H13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I13" s="17">
         <f>I3*I4*I8</f>
@@ -16008,7 +16008,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" s="17">
         <f>B3*B4*B9</f>
@@ -16023,7 +16023,7 @@
         <v>25.344345599999976</v>
       </c>
       <c r="H14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I14" s="17">
         <f>I3*I4*I9</f>
@@ -16040,7 +16040,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B15" s="17">
         <f>B3*B5*B10</f>
@@ -16055,7 +16055,7 @@
         <v>145.38201480000001</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I15" s="17">
         <f>I3*I5*I10</f>
@@ -16072,7 +16072,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B16" s="17">
         <f>B3*B5*B11</f>
@@ -16087,7 +16087,7 @@
         <v>51.612585200000005</v>
       </c>
       <c r="H16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16" s="17">
         <f>I3*I5*I11</f>
@@ -16156,21 +16156,21 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B21" s="17">
         <f>B13+C13+D13</f>
@@ -16181,7 +16181,7 @@
         <v>408.91196549999978</v>
       </c>
       <c r="H21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I21" s="17">
         <f>I13+J13+K13</f>
@@ -16194,7 +16194,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B22" s="17">
         <f>B15+C15+D15</f>
@@ -16209,7 +16209,7 @@
         <v>0.60199623624764098</v>
       </c>
       <c r="H22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I22" s="17">
         <f>I15+J15+K15</f>
@@ -16226,14 +16226,14 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="15">
         <f>B21*C22/C21/B22</f>
         <v>8.4783479955198739</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L24" s="15">
         <f>I21*J22/J21/I22</f>
@@ -16242,14 +16242,14 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="15">
         <f>(B21/(B21+C21))/(B22/(B22+C22))</f>
         <v>1.5409750168597309</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" s="15">
         <f>(I21/(I21+J21))/(I22/(I22+J22))</f>
@@ -16280,10 +16280,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -16291,7 +16291,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B2" s="24">
         <v>2016</v>
@@ -16302,7 +16302,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B3" s="24">
         <v>2017</v>
@@ -16313,7 +16313,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B4" s="24">
         <v>2018</v>
@@ -16324,7 +16324,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="24" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B5" s="24">
         <v>2019</v>
@@ -16335,7 +16335,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B6">
         <v>2016</v>
@@ -16347,7 +16347,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B7">
         <v>2017</v>
@@ -16359,7 +16359,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B8">
         <v>2018</v>
@@ -16371,7 +16371,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>2019</v>
@@ -16383,7 +16383,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -16395,7 +16395,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>2017</v>
@@ -16407,7 +16407,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>2018</v>
@@ -16419,7 +16419,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B13">
         <v>2019</v>
@@ -16449,10 +16449,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -16478,10 +16478,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
         <f>OpioidPattern!D7</f>
@@ -16499,10 +16499,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="23">
         <f>OpioidPattern!D8</f>
@@ -16520,10 +16520,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="21">
         <f>OverdoseRisk!C2</f>
@@ -16540,10 +16540,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5">
         <f>OverdoseRisk!C3</f>
@@ -16560,10 +16560,10 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6">
         <f>OverdoseRisk!C5</f>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="15">
         <f>OverdoseRisk!C6</f>
@@ -16600,10 +16600,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="15">
         <f>OverdoseRisk!C7</f>
@@ -16620,10 +16620,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9">
         <f>OverdoseRisk!C8</f>
@@ -16640,10 +16640,10 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="14">
         <f>Mortality!B2</f>
@@ -16660,10 +16660,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="14">
         <f>Mortality!B3</f>
@@ -16680,10 +16680,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12">
         <f>Mortality!B4</f>
@@ -16700,10 +16700,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="15">
         <f>DecisionTree!C3</f>
@@ -16720,10 +16720,10 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="15">
         <f>DecisionTree!C4</f>
@@ -16784,10 +16784,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17">
         <f>DecisionTree!C7</f>
@@ -16804,10 +16804,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="14">
         <f>DecisionTree!C8</f>
@@ -16824,10 +16824,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19">
         <v>0.5</v>
@@ -16841,10 +16841,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20">
         <f>NxKit!B4</f>
@@ -16877,154 +16877,154 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G1" t="s">
+        <v>197</v>
+      </c>
+      <c r="H1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I1" t="s">
         <v>198</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>200</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>201</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>202</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" t="s">
         <v>203</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>205</v>
+      </c>
+      <c r="R1" t="s">
+        <v>206</v>
+      </c>
+      <c r="S1" t="s">
+        <v>207</v>
+      </c>
+      <c r="T1" t="s">
+        <v>235</v>
+      </c>
+      <c r="U1" t="s">
+        <v>208</v>
+      </c>
+      <c r="V1" t="s">
+        <v>209</v>
+      </c>
+      <c r="W1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X1" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>226</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>227</v>
+      </c>
+      <c r="AR1" t="s">
         <v>239</v>
       </c>
-      <c r="I1" t="s">
-        <v>204</v>
-      </c>
-      <c r="J1" t="s">
-        <v>205</v>
-      </c>
-      <c r="K1" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M1" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AS1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>229</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>230</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AX1" t="s">
         <v>240</v>
-      </c>
-      <c r="O1" t="s">
-        <v>209</v>
-      </c>
-      <c r="P1" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>211</v>
-      </c>
-      <c r="R1" t="s">
-        <v>212</v>
-      </c>
-      <c r="S1" t="s">
-        <v>213</v>
-      </c>
-      <c r="T1" t="s">
-        <v>241</v>
-      </c>
-      <c r="U1" t="s">
-        <v>214</v>
-      </c>
-      <c r="V1" t="s">
-        <v>215</v>
-      </c>
-      <c r="W1" t="s">
-        <v>216</v>
-      </c>
-      <c r="X1" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>219</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>220</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>221</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>226</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>227</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>228</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>229</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>230</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>235</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>236</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
@@ -17485,7 +17485,7 @@
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B5">
         <v>1.708645853613466E-2</v>
@@ -22975,10 +22975,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -23004,158 +23004,158 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="9">
         <v>2.4942686840898669E-2</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9">
         <v>6.7126436781609192E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9">
         <v>6.9954776710005648E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9">
         <v>5.6965357481309889E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9">
         <v>3.7692145714887347E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -23164,172 +23164,172 @@
         <v>1.5907447577729574E-2</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9">
         <v>2.6074182886522218E-2</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9">
         <v>5.373573794626426E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9">
         <v>6.8940493468795355E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9">
         <v>4.1410184667039732E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -23338,172 +23338,172 @@
         <v>2.5056947608200455E-2</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="9">
         <v>2.436938862761864E-2</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9">
         <v>6.2884483937115515E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9">
         <v>5.9245960502692999E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="9">
         <v>4.6042617960426177E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="9">
         <v>2.6683608640406607E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -23512,172 +23512,172 @@
         <v>2.9069767441860465E-2</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="9">
         <v>2.2212908633696564E-2</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="9">
         <v>5.5646481178396073E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9">
         <v>6.0267857142857144E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9">
         <v>4.1769041769041768E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9">
         <v>3.0120481927710843E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -23686,172 +23686,172 @@
         <v>1.7964071856287425E-2</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="9">
         <v>2.7733912356889063E-2</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9">
         <v>6.7545891997861346E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9">
         <v>5.9462835727670207E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="9">
         <v>4.374098124098124E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="9">
         <v>3.1348543869411986E-2</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>65</v>
@@ -23860,172 +23860,172 @@
         <v>1.1685116851168511E-2</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="9">
         <v>3.5166479610924055E-2</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="9">
         <v>4.6284224250325946E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="9">
         <v>4.4698544698544701E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="9">
         <v>3.0814689742507388E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="9">
         <v>3.125E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>65</v>
@@ -24034,172 +24034,172 @@
         <v>8.3056478405315621E-3</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="9">
         <v>3.6120840630472856E-2</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="9">
         <v>5.2423777144110548E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="9">
         <v>4.7795479807336047E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="9">
         <v>3.065373787926181E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="9">
         <v>1.3197969543147208E-2</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>65</v>
@@ -24208,172 +24208,172 @@
         <v>2.0876826722338204E-2</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="9">
         <v>3.0328919265271252E-2</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="9">
         <v>6.0930424042815977E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9">
         <v>4.7806155861165683E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="9">
         <v>2.9858849077090119E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="9">
         <v>2.3972602739726026E-2</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>65</v>
@@ -24382,19 +24382,19 @@
         <v>1.3927576601671309E-2</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -24418,10 +24418,10 @@
         <v>46</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -24447,158 +24447,158 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="9">
         <v>3.9431453461714807E-3</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" s="9">
         <v>5.6091954022988506E-2</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" s="9">
         <v>4.8473713962690783E-2</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" s="9">
         <v>2.2428135200589661E-2</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" s="9">
         <v>1.284480943356496E-2</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -24607,172 +24607,172 @@
         <v>2.1691973969631237E-3</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8" s="9">
         <v>1.1017260374586854E-3</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D9" s="9">
         <v>1.6562384983437616E-2</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D10" s="9">
         <v>2.0319303338171262E-2</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D11" s="9">
         <v>1.9026301063234472E-2</v>
       </c>
       <c r="E11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D12" s="9">
         <v>3.7641154328732745E-2</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C13">
         <v>65</v>
@@ -24781,172 +24781,172 @@
         <v>6.8337129840546698E-3</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" s="9">
         <v>3.3528918692372171E-3</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D15" s="9">
         <v>4.0916530278232409E-2</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="9">
         <v>3.9434523809523808E-2</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D17" s="9">
         <v>2.5798525798525797E-2</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D18" s="9">
         <v>1.2048192771084338E-2</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C19">
         <v>65</v>
@@ -24955,172 +24955,172 @@
         <v>2.9940119760479044E-3</v>
       </c>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D20" s="9">
         <v>3.8477982043608381E-3</v>
       </c>
       <c r="E20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D21" s="9">
         <v>4.5340624287992709E-2</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D22" s="9">
         <v>3.7701974865350089E-2</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D23" s="9">
         <v>2.5875190258751901E-2</v>
       </c>
       <c r="E23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" s="9">
         <v>1.5247776365946633E-2</v>
       </c>
       <c r="E24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C25">
         <v>65</v>
@@ -25129,172 +25129,172 @@
         <v>5.8139534883720929E-3</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="9">
         <v>3.3557046979865771E-3</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D27" s="9">
         <v>3.920869720192479E-2</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9">
         <v>2.7357901311680199E-2</v>
       </c>
       <c r="E28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D29" s="9">
         <v>1.0281385281385282E-2</v>
       </c>
       <c r="E29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D30" s="9">
         <v>6.3068076423669081E-3</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C31">
         <v>65</v>
@@ -25303,172 +25303,172 @@
         <v>1.025010250102501E-3</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D32" s="9">
         <v>1.4964459408903852E-3</v>
       </c>
       <c r="E32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D33" s="9">
         <v>1.2059973924380704E-2</v>
       </c>
       <c r="E33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="9">
         <v>1.0914760914760915E-2</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D35" s="9">
         <v>1.2241452089489235E-2</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D36" s="9">
         <v>1.46484375E-2</v>
       </c>
       <c r="E36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C37">
         <v>65</v>
@@ -25477,172 +25477,172 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38" s="9">
         <v>3.8445108927808629E-3</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D39" s="9">
         <v>3.1700288184438041E-2</v>
       </c>
       <c r="E39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D40" s="9">
         <v>2.2920759659463E-2</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="9">
         <v>1.1400651465798045E-2</v>
       </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D42" s="9">
         <v>5.1369863013698627E-3</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C43">
         <v>65</v>
@@ -25651,172 +25651,172 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D44" s="9">
         <v>4.5971978984238179E-3</v>
       </c>
       <c r="E44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D45" s="9">
         <v>3.2243913138846239E-2</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46" s="9">
         <v>1.7413856984068173E-2</v>
       </c>
       <c r="E46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D47" s="9">
         <v>1.0009383797309979E-2</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D48" s="9">
         <v>5.076142131979695E-3</v>
       </c>
       <c r="E48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>65</v>
@@ -25825,19 +25825,19 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -25863,13 +25863,13 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -25893,88 +25893,88 @@
         <v>6</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="4">
         <f>(93000+62000)/(93000+62000+781000)</f>
         <v>0.16559829059829059</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="4">
         <f>(30000+55000)/(30000+55000+616000)</f>
         <v>0.12125534950071326</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2">
         <v>0.48599999999999999</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="4">
         <v>0.41049999999999998</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="3">
         <v>9.0999999999999998E-2</v>
@@ -25986,18 +25986,18 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="4">
         <f>22/39</f>
@@ -26010,21 +26010,21 @@
         <v>0.86599999999999999</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="K7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="23">
         <v>0.05</v>
@@ -26036,60 +26036,60 @@
         <v>0.1</v>
       </c>
       <c r="J8" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>47</v>
+        <v>242</v>
       </c>
       <c r="D9" s="10">
         <v>0.191</v>
       </c>
       <c r="J9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="10">
         <v>0.25244517036746611</v>
       </c>
       <c r="J10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="4">
         <f>684/1427</f>
         <v>0.47932725998598458</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
@@ -26123,7 +26123,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -26149,7 +26149,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B2" s="2">
         <f>3587000/(3587000+891000)*0.176+891000/(3587000+891000)*0.079</f>
@@ -26164,12 +26164,12 @@
         <v>0.17030683340777131</v>
       </c>
       <c r="H2" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B3" s="10">
         <v>0.25244517036746611</v>
@@ -26196,7 +26196,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -26217,235 +26217,235 @@
         <v>5</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B2">
         <v>13.3</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="16">
         <f>B2*2.59</f>
         <v>34.447000000000003</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="K2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B3">
         <v>70.2</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H3" s="16">
         <f>B3*2.59</f>
         <v>181.81799999999998</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="K3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B4">
         <v>128.80000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" s="16">
         <f t="shared" ref="H4:H8" si="0">B4*2.59</f>
         <v>333.59199999999998</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B5">
         <v>194.7</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H5" s="16">
         <f t="shared" si="0"/>
         <v>504.27299999999997</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B6">
         <v>359.9</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H6" s="16">
         <f t="shared" si="0"/>
         <v>932.14099999999985</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B7">
         <v>886.7</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H7" s="16">
         <f t="shared" si="0"/>
         <v>2296.5529999999999</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B8">
         <v>4386.1000000000004</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H8" s="16">
         <f t="shared" si="0"/>
         <v>11359.999</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K8" s="12"/>
     </row>
@@ -26462,8 +26462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B9D151-15B7-4717-813C-05A73491EC4A}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26474,10 +26474,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>0</v>
@@ -26503,10 +26503,10 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C2" s="21">
         <v>7.5438493580000003E-3</v>
@@ -26520,10 +26520,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3">
         <v>1.538E-2</v>
@@ -26537,10 +26537,10 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -26548,10 +26548,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>2.9</v>
@@ -26563,15 +26563,15 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C6" s="15">
         <v>2.9950980392156863</v>
@@ -26583,15 +26583,15 @@
         <v>5.9488195813894986</v>
       </c>
       <c r="F6" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C7" s="15">
         <v>5.9153225806451619</v>
@@ -26605,10 +26605,10 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C8">
         <v>3.5</v>
@@ -26622,10 +26622,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -26637,7 +26637,7 @@
         <v>1.2</v>
       </c>
       <c r="I9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
